--- a/Data/casefile.xlsx
+++ b/Data/casefile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,7 +94,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{'Id': '47cadf47-31e9-4e08-a312-28b3f6965dbe', 'Email': '110', 'DateOfBirth': '2017-08-13', 'DateOfEntry': '1978-07-01', 'Age': 1, 'Name': '赵铁柱', 'Roles': '非党员', 'RoleId': '11', 'OrganizationId': 126, 'LoginProvider': Null}</t>
+    <t>{'Id': '47cadf47-31e9-4e08-a312-28b3f6965dbe', 'Email': '110', 'DateOfBirth': '2017-08-13', 'DateOfEntry': '1978-07-01', 'Age': 1, 'Name': '赵铁柱', 'Roles': '非党员', 'RoleId': '11', 'OrganizationId': 126, 'LoginProvider': None}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api/works/02314bbd-85da-4d5a-951b-c3f05b96430e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'qq':'dada'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,14 +586,20 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
